--- a/MoreFormulasCustomConfig.xlsx
+++ b/MoreFormulasCustomConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SteamLibrary\steamapps\workshop\content\3167020\3596898614\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9A136-0276-4641-BDE2-9F6900763E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5242AE41-9F76-473C-888F-458C4D0D52D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9255" yWindow="5310" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配方表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,42 @@
   </si>
   <si>
     <t>2,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大急救箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MedicStation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚乙烯片,胶带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>764,765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +314,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -565,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -998,6 +1034,70 @@
         <v>47</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>136</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/MoreFormulasCustomConfig.xlsx
+++ b/MoreFormulasCustomConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SteamLibrary\steamapps\workshop\content\3167020\3596898614\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5242AE41-9F76-473C-888F-458C4D0D52D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A55571-D824-408E-8CA4-7A2990EB8534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9255" yWindow="5310" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10755" yWindow="4905" windowWidth="27120" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配方表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,145 +130,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>顶级有机纤维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级武器零件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级武器零件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkBenchAdvanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkBenchAdvanced</t>
+  </si>
+  <si>
+    <t>高级火药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐装火药（红）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐装火药（绿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐装火药（蓝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属片,火药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>362,864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器零件,钉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>367,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光手雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝热剂,金属片,火药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85,362,864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大急救箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MedicStation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚乙烯片,胶带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>764,765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>有机纤维</t>
-  </si>
-  <si>
-    <t>顶级有机纤维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级武器零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级武器零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级武器零件,武器零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配方标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkBenchAdvanced</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkBenchAdvanced</t>
-  </si>
-  <si>
-    <t>高级火药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罐装火药（红）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罐装火药（绿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罐装火药（蓝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属片,火药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>362,864</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器零件,钉子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>367,28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪光手雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铝热剂,金属片,火药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85,362,864</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大急救箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急救箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MedicStation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注射器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚乙烯片,胶带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>764,765</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级有机纤维,聚乙烯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1170,764</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级武器零件,金属片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器零件,有机纤维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>367,743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>662,362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救箱,注射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -714,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -737,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2">
-        <v>743</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -757,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1171</v>
@@ -769,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1170</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -789,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>662</v>
@@ -801,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2">
-        <v>367</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -821,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>663</v>
@@ -833,16 +866,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="2">
-        <v>662</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -853,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>1184</v>
@@ -865,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2">
         <v>864</v>
@@ -874,7 +907,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -885,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>1192</v>
@@ -897,16 +930,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -917,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>1193</v>
@@ -929,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -949,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>1194</v>
@@ -961,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -981,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>362</v>
@@ -993,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1013,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>66</v>
@@ -1025,16 +1058,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1045,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1057,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1077,7 +1110,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>136</v>
@@ -1089,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
